--- a/Data/Processed/Angiosperms/missing_powo_ipni/Celastraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Celastraceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mant. 1 (Schultes) 348. 1822 </t>
+          <t>Mant. 1 (Schultes) 348. 1822</t>
         </is>
       </c>
       <c r="J276" t="b">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 11(1): 11. 1861 [15 Feb 1861] </t>
+          <t>Fl. Bras. (Martius) 11(1): 11. 1861 [15 Feb 1861]</t>
         </is>
       </c>
       <c r="J277" t="b">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 15(5, Beibl. 38): 8. 1893 [24 Feb 1893] </t>
+          <t>Bot. Jahrb. Syst. 15(5, Beibl. 38): 8. 1893 [24 Feb 1893]</t>
         </is>
       </c>
       <c r="J278" t="b">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
